--- a/biology/Botanique/Peronospora/Peronospora.xlsx
+++ b/biology/Botanique/Peronospora/Peronospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peronospora est un genre de champignons oomycètes de la famille des Peronosporaceae.
 Ce genre comprend environ 75 espèces qui sont souvent des parasites biotrophes spécifiques de genres ou de familles de plantes herbacées dicotylédones. 
 Ces pseudo-champignons pathogènes des plantes sont responsables de formes de mildiou notamment sur betterave, épinard, luzerne et  trèfle, chou, tabac, soja et pois.
-L'espèce type est Peronospora rumicis Corda 1837[2] .
+L'espèce type est Peronospora rumicis Corda 1837 .
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Catalogue of Life                                   (28 février 2019)[3] :
+Selon Catalogue of Life                                   (28 février 2019) :
 Peronospora achlydis S. Ito &amp; Tokun., 1935
 Peronospora aconiti Y. N. Yu, 1979
 Peronospora actinostemmatis (Sawada) Skalický, 1966
@@ -913,7 +927,7 @@
 Peronospora whippleae Ellis &amp; Everh., 1895
 Peronospora yamadana Togashi, 1935
 Peronospora ziziphorae Byzova, 1964
-Selon Index Fungorum                                      (28 février 2019)[4] :
+Selon Index Fungorum                                      (28 février 2019) :
 Peronospora achlydis S. Ito &amp; Tokun. 1935
 Peronospora aconiti Y.N. Yu 1979
 Peronospora actinostemmatis (Sawada) Skalický 1966
@@ -1345,7 +1359,7 @@
 Peronospora sisymbrii-officinalis Gäum. 1918
 Peronospora sisymbrii-orientalis Gäum. 1918
 Peronospora solenanthi Byzova 1977
-Peronospora som</t>
+Peronospora somniferi</t>
         </is>
       </c>
     </row>
